--- a/demo-4/src/main/resources/excel/RunnerList.xlsx
+++ b/demo-4/src/main/resources/excel/RunnerList.xlsx
@@ -12,7 +12,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="81" uniqueCount="9">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="6" uniqueCount="6">
   <si>
     <t>Name</t>
   </si>
@@ -21,15 +21,6 @@
   </si>
   <si>
     <t>Gender</t>
-  </si>
-  <si>
-    <t>Dand</t>
-  </si>
-  <si>
-    <t>Runner</t>
-  </si>
-  <si>
-    <t>male</t>
   </si>
   <si>
     <t>dand</t>
@@ -83,7 +74,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A2:C8"/>
+  <dimension ref="A2:C3"/>
   <sheetViews>
     <sheetView workbookViewId="0" tabSelected="true"/>
   </sheetViews>
@@ -111,61 +102,6 @@
         <v>5</v>
       </c>
     </row>
-    <row r="4">
-      <c r="A4" t="s">
-        <v>6</v>
-      </c>
-      <c r="B4" t="s">
-        <v>7</v>
-      </c>
-      <c r="C4" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="5">
-      <c r="A5" t="s">
-        <v>3</v>
-      </c>
-      <c r="B5" t="s">
-        <v>4</v>
-      </c>
-      <c r="C5" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="6">
-      <c r="A6" t="s">
-        <v>3</v>
-      </c>
-      <c r="B6" t="s">
-        <v>4</v>
-      </c>
-      <c r="C6" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="7">
-      <c r="A7" t="s">
-        <v>3</v>
-      </c>
-      <c r="B7" t="s">
-        <v>4</v>
-      </c>
-      <c r="C7" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="8">
-      <c r="A8" t="s">
-        <v>3</v>
-      </c>
-      <c r="B8" t="s">
-        <v>4</v>
-      </c>
-      <c r="C8" t="s">
-        <v>5</v>
-      </c>
-    </row>
   </sheetData>
   <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
 </worksheet>

--- a/demo-4/src/main/resources/excel/RunnerList.xlsx
+++ b/demo-4/src/main/resources/excel/RunnerList.xlsx
@@ -12,7 +12,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="6" uniqueCount="6">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="15" uniqueCount="9">
   <si>
     <t>Name</t>
   </si>
@@ -21,6 +21,15 @@
   </si>
   <si>
     <t>Gender</t>
+  </si>
+  <si>
+    <t>Dand</t>
+  </si>
+  <si>
+    <t>Runner</t>
+  </si>
+  <si>
+    <t>male</t>
   </si>
   <si>
     <t>dand</t>
@@ -74,7 +83,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A2:C3"/>
+  <dimension ref="A2:C4"/>
   <sheetViews>
     <sheetView workbookViewId="0" tabSelected="true"/>
   </sheetViews>
@@ -102,6 +111,17 @@
         <v>5</v>
       </c>
     </row>
+    <row r="4">
+      <c r="A4" t="s">
+        <v>6</v>
+      </c>
+      <c r="B4" t="s">
+        <v>7</v>
+      </c>
+      <c r="C4" t="s">
+        <v>8</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
 </worksheet>
